--- a/неинв.xlsx
+++ b/неинв.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Полина\Desktop\folder\учеба\2 курс\4 сем\Электроника\лаба 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Полина\Desktop\folder\гит\eltech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5AC797-1601-4EFA-B1F3-AEE5255ED758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9491E9-2ECE-41AA-A666-280CEB5DB39F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6684" yWindow="3804" windowWidth="17280" windowHeight="8964" xr2:uid="{0D89C0AA-FDFE-477F-A56D-F63F72C1313E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{0D89C0AA-FDFE-477F-A56D-F63F72C1313E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -97,12 +97,12 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -113,100 +113,115 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C:$C</c:f>
+              <c:f>Лист1!$A:$A</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>-0.01</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.9999999999999993E-3</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.9000000000000008E-3</c:v>
+                  <c:v>-12.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.7999999999999996E-3</c:v>
+                  <c:v>-11.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.7000000000000002E-3</c:v>
+                  <c:v>-10.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.5999999999999999E-3</c:v>
+                  <c:v>-9.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.8E-3</c:v>
+                  <c:v>-8.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.7000000000000002E-3</c:v>
+                  <c:v>-7.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.5999999999999999E-3</c:v>
+                  <c:v>-6.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.5000000000000001E-3</c:v>
+                  <c:v>-5.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.3999999999999998E-3</c:v>
+                  <c:v>-4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.3E-3</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.1999999999999999E-3</c:v>
+                  <c:v>-1.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1E-4</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0999999999999999E-3</c:v>
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>-3.6554093089999999E-14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2000000000000002E-3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3999999999999998E-3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.5000000000000001E-3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.5999999999999999E-3</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.7000000000000002E-3</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8999999999999998E-3</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.1000000000000004E-3</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.1999999999999998E-3</c:v>
+                  <c:v>6.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.3000000000000001E-3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.4000000000000004E-3</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.01</c:v>
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D:$D</c:f>
+              <c:f>Лист1!$B:$B</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
@@ -232,46 +247,46 @@
                   <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-14.5459</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-14.177199999999999</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13.898099999999999</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-13.5633</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.1633999999999993</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.7634600000000002</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.36352899999999999</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0364100000000001</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.4363399999999995</c:v>
+                  <c:v>3.64651E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.8363</c:v>
+                  <c:v>14.023</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.6363</c:v>
+                  <c:v>14.027799999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.982100000000001</c:v>
+                  <c:v>14.023</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.0282</c:v>
+                  <c:v>14.023</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.028700000000001</c:v>
+                  <c:v>14.023</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>14.023</c:v>
@@ -292,15 +307,30 @@
                   <c:v>14.023</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>14.023</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.023</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.023</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.023</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>14.023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4F53-4CB0-8CC0-78A343DF7DD7}"/>
+              <c16:uniqueId val="{00000000-CB6E-4EA3-B78E-ABAC99ADA58F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -318,12 +348,12 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="1"/>
+                <c:order val="1"/>
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -533,7 +563,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-CB6E-4EA3-B78E-ABAC99ADA58F}"/>
+                    <c16:uniqueId val="{00000001-4F53-4CB0-8CC0-78A343DF7DD7}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1613,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07673CF-4D6B-4DD1-842B-1E10233B5301}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
